--- a/GIM/docs/PRI_GIM_APP_permissions.xlsx
+++ b/GIM/docs/PRI_GIM_APP_permissions.xlsx
@@ -159,12 +159,78 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>PRI_PROJ_RES</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>DELETE, INSERT, SELECT, UPDATE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PRI</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>PRI_PROJ_TAGS</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>DELETE, INSERT, SELECT</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PRI</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PRI_RES_SCOPES</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SELECT</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PRI</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PRI_RES_TYPES</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SELECT</t>
         </is>
       </c>
     </row>

--- a/GIM/docs/PRI_GIM_APP_permissions.xlsx
+++ b/GIM/docs/PRI_GIM_APP_permissions.xlsx
@@ -137,12 +137,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRI_PROJ</t>
+          <t>PRI_DATA_SOURCES</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>INSERT, SELECT, UPDATE</t>
+          <t>SELECT</t>
         </is>
       </c>
     </row>
@@ -159,12 +159,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PRI_PROJ_RES</t>
+          <t>PRI_PROJ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DELETE, INSERT, SELECT, UPDATE</t>
+          <t>INSERT, SELECT, UPDATE</t>
         </is>
       </c>
     </row>
@@ -181,12 +181,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PRI_PROJ_TAGS</t>
+          <t>PRI_PROJ_RES</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DELETE, INSERT, SELECT</t>
+          <t>DELETE, INSERT, SELECT, UPDATE</t>
         </is>
       </c>
     </row>
@@ -203,12 +203,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PRI_RES_SCOPES</t>
+          <t>PRI_PROJ_TAGS</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>DELETE, INSERT, SELECT</t>
         </is>
       </c>
     </row>
@@ -225,12 +225,56 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>PRI_RES_SCOPES</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SELECT</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PRI</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>PRI_RES_TYPES</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>SELECT</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PRI</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PRI_VC_USERS</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>INSERT, SELECT, UPDATE</t>
         </is>
       </c>
     </row>
